--- a/data/top_docs/mallet/thetas_sample_top_docs.xlsx
+++ b/data/top_docs/mallet/thetas_sample_top_docs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,23 +476,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>credits composition allmusic listing charts piano drums beats liner label recording download ballad songwriter vocals albums musicians accompanying remix singer mixing singing adapted lyrically tempo formats lyrical pop lyrics acoustic billboard charted musically promotion performing mixed instrumentation background grammy videos promotional reception vocal personnel promote rolling_stone releases artist digital influences usher debuted sounds backing hip footage songwriting compilation guitars chart youtube listings handled popmatters bonus concert musician keyboards reviewer studio studios catchy percussion nme remixes airplay hop mexican vocalist guitarist band recordings thirty peaked tracks jazz sing collaboration rap electronic recorded bass hear highlight radio hot sings listeners dvd stan</t>
+          <t>['episode', 'mulder', 'doctor', 'scully', 'viewers', 'episodes', 'series', 'television', 'character', 'season', 'watched', 'dwight', 'broadcast', 'trek', 'jack']</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06953584346920252</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2601266093552113</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.20934246070683</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08229254353791475</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01264559390838258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>film release released million story scene scenes script effects production opening plot filming original director sequel action movie weekend blu character bond highest batman score dvd photography cast based reviews films shot box grossing stars visual gave trailer screenplay disney version rotten_tomatoes marvel characters studio said office like rating set filmmakers sequels toy gross theaters wanted making footage burton idea animation critics worldwide animated direct theatrical cinematic shots grossed james_bond stated development horror sequence critical create principal cameron best special north_america halloween screening reception written escapes kills woody filmed villain animators cgi budget sequences movies role features place kill takes</t>
+          <t>['album', 'song', 'madonna', 'chart', 'video', 'music', 'harrison', 'songs', 'carey', 'band', 'pop', 'track', 'recording', 'billboard', 'number']</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3836670473217964</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01810773070901632</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005598341723089107</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01054005758196581</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01852040527010104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -526,23 +526,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>career hit games season league baseball major_league_baseball signed home played manager professional minor earned hits pitcher mlb leagues base giants roster strikeouts average pitched runs spent playing hitter starts spring era pitching basketball cubs inning team catcher national_league traded record starting rookie draft double named year run dodgers baseman batted contract disabled bats batters reds percentage hitting postseason pitchers rbi new_york_yankees seasons plate sophomore pirates prospect pitch rbis bases drafted pitches braves hitters walks ninth signing pennant finished player assists major boston_red_sox american_league chicago_cubs throwing philadelphia_phillies outfielder fastball handed batting fielder fielding shortstop texas_rangers freshman detroit_tigers tied san_francisco_giants list cincinnati_reds</t>
+          <t>['ship', 'guns', 'ships', 'tons', 'torpedo', 'knots', 'inch', 'cruiser', 'fleet', 'gun', 'deck', 'admiral', 'german', 'turrets', 'cruisers']</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.004719489250419429</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008105344488285482</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02776365333702415</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09408301692456007</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5841245472431182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -551,23 +551,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>work life wrote writing published book written women works history world writer woman early books years known literary thought according children man people author novel poetry death art god human ideas society stories write poems literature historical story family age described writers modern century later church born writings study mother poem father science believed like social school culture poet view spiritual use religious tradition contemporary christian friend novels theory taught characters believe studies idea considered academic prize criticism old form account cult belief comics argued cultural professor great views political chess nature publication readers called publishing sexual teaching influenced philosophical</t>
+          <t>['highway', 'route', 'road', 'freeway', 'interchange', 'intersection', 'terminus', 'north', 'east', 'lane', 'continues', 'state', 'avenue', 'passes', 'traffic']</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1311802551150322</v>
+        <v>0.4392111173542654</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01988476170226932</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006649886141531169</v>
+        <v>0.9186619189583966</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002441764039394911</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.163910686597228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -576,23 +576,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tons beam deck consisted guns laid horsepower armor hull boilers displaced steam mounted armament battery knots armored protected stern inch belt commissioned aft scrap torpedo carried waterline ironclad muzzle ship tubes amidships italian shipyard assigned propulsion indicated thick nautical enlisted broken stricken millimeter conning armed trials turrets shaft launched flagship gun twin propeller fired pounder ironclads cruiser caliber submerged load bow driving engines sisters quick powered casemates armour coal forward supplied maximum turbines outbreak draft rounds mounts plates wrought superstructure inches broadside expansion loading iron russian reduced battleship provided secondary hotchkiss class maneuvers fore transverse ammunition backed austro barbettes calibre</t>
+          <t>['election', 'hitler', 'campaign', 'party', 'bush', 'republican', 'political', 'vote', 'labour', 'president', 'presidential', 'democratic', 'war', 'government', 'senate']</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01117932314809877</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007495315655251034</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01584980770130642</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1767624512314797</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3009973175823689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -601,23 +601,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>different called given form example point elements real use possible formula sequence particular result simple similar method function known physical results defined terms non problem theory important equivalent functions instance shown uses related constant space set value applications linear types zero complex basic field values light figure energy mechanical matrix systems plane standard properties corresponding case triangle gives mathematical direction methods group equation numbers code allows element definition continuous independent structure type frequency fact useful means map components analysis sense finite dimensional ways normal change equal infinite information certain order filter rules surface electrical ratio image step mechanics quantum cell</t>
+          <t>['tropical', 'storm', 'hurricane', 'winds', 'depression', 'cyclone', 'mph', 'rainfall', 'damage', 'landfall', 'wind', 'utc', 'flooding', 'weakened', 'intensity']</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.006911990742082708</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03133088899048744</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3788896471261978</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.526554274559021</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007838482119768741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -626,23 +626,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>war american later wrote years began men time british land united_states known general early received including southern day returned state military lincoln new_york near governor family continued led march sent north south town command small president took hamilton major came gave battle new left large died massachusetts july arnold texas fort remained troops washington arrived called soldiers went slavery expedition included ordered settlers colonial end man city government named officers year house slaves new_england death miles days jefferson june navy life white congress virginia army return grant spanish area boston great confederate people slave commander following attack little served moved</t>
+          <t>['king', 'government', 'polish', 'political', 'emperor', 'son', 'arab', 'death', 'military', 'army', 'died', 'pope', 'poland', 'reign', 'byzantine']</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1753770954906941</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008139295694127214</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09716632422059775</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00503561184668797</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009060358064016328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -651,23 +651,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>game released games player music version original series release story characters players main character japan based development soundtrack tracks hero theme playing japanese published new guitar plot enix playstation gaming created video gameplay versions features included called scenario anime sold localization received previous songs mode composed final_fantasy playable persona tales developed battle square_enix famitsu praised titled manga multiplayer content dragon online best world use rpg developers include arranged ign xbox create downloadable ending console portable different abilities arrangements controller nintendo volumes soundtracks hearts fantasy gamespot items wii protagonist featured difficulty ps2 similar multiple mortal cutscenes fan key containing additional reviewers</t>
+          <t>['species', 'shark', 'genus', 'sharks', 'females', 'prey', 'eggs', 'males', 'cap', 'birds', 'nest', 'habitat', 'fin', 'brown', 'stem']</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01262525514466688</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3864576071500778</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2270492181181908</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.009842256832052953</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2859049156308174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -676,23 +676,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tropical storm cyclone area cyclones near level wind low formed depression miles winds water west sea activity ice high southwest northwest system storms south volcano peak typhoon coast mph disturbance shear trough surface cold southeast eruption weather feet form circulation temperature day moved upper days formation caused hurricane convection ocean northeast rainfall flows land august developed monsoon volcanic mountain east lava ridge significant air turned subtropical warm atmosphere moving intensity westward july basin dissipated pressure cloud center region weakened lower september severe snow clouds southern strong temperatures active pacific areas zone extratropical large island organized metres mid waters eastern lake</t>
+          <t>['game', 'player', 'gameplay', 'games', 'players', 'soundtrack', 'mario', 'playstation', 'graphics', 'mode', 'hero', 'nintendo', 'characters', 'released', 'version']</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.09913063589483499</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2468394175171852</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08523723129183054</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005699593780445866</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08347171470522881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -701,23 +701,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>court act public law state rights case government right cases united_states courts decision singapore person held review legal states constitutional required appeal provisions subject article constitution section purpose judges non order free federal justice executive laws process jurisdiction requires members amendment powers apply shall human persons action provision clause information criminal question means judgment common freedom property specifically authority people certain statute purposes argued supreme_court necessary interest judicial applicable report effect provides bill opinion prevent judge limited exercise provided protection view congress power citizens scope passed legislation considered acts provide ensure issued judiciary decisions enacted personal involving actions parliament adopted</t>
+          <t>['innings', 'runs', 'league', 'baseball', 'nba', 'batting', 'season', 'career', 'team', 'scored', 'wickets', 'basketball', 'games', 'rebounds', 'batted']</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.00908245351165533</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004141597595298663</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01539130876481067</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00471520816499833</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04069535820744932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -726,23 +726,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bridge miles area road construction river route line traffic dam water station feet tunnel built valley project park opened canal south railway motorway bridges mile section completed land creek near north street city toll service proposed located watershed access flood link plans lake lanes downstream roads coal constructed channel rail drainage london west navigation acres lane flows stations east upstream lock mouth crossing site town km2 passengers connect cubic tributaries tributary junction wildlife tunnels connecting areas services routes transit western reaches trout trains reservoir cost extension railroad tolls trail interchange border locks basin transport plan corridor rest passenger operated lower</t>
+          <t>['film', 'films', 'bond', 'disney', 'role', 'movie', 'actor', 'starred', 'cast', 'box', 'tamil', 'director', 'filming', 'grossing', 'production']</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.05590180112048983</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2428244076669216</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2534884057939052</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01949044741340913</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03989865202456713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -751,23 +751,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>century known breed horses horse found popular island today breeds including period dog large early include small breeding food region modern islands europe wine population dogs established area especially bred use traditional seen tea quality plants leaves considered common european plant northern imported arabian brought years fried important native birds stud variety red scotland produce grown 19th areas cuisine generally present particularly southern species different meat park britain culture history chinese produced black old vegetables called english tradition stallion chicken 20th regions breeders earliest tree scottish usually water wild local spread cooked norse registered late herd coat created land ancient</t>
+          <t>['french', 'british', 'governor', 'militia', 'troops', 'battle', 'massachusetts', 'boston', 'command', 'kentucky', 'fort', 'men', 'army', 'fleet', 'general']</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03313345238566399</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06627249279990792</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01159583573171403</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01762318696128205</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006846843153471127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -776,23 +776,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>september storm mph august hurricane october day damage near early developed later tropical began caused winds system west reported strong people days continued produced moved heavy july late june east reached destroyed brought depression november damaged quickly hours north million shortly florida category peaked status south occurred passed peak turned homes formed northeast deaths resulted estimated initially curved landfall flooding coast rainfall northwestward issued northeastward reaching briefly slightly located area strengthened southern names moving fatalities eastern utc overall struck wave lesser low sustained minimal bermuda southeast maximum island central africa atlantic curving antilles caribbean_sea northwest weakened offshore remnants hurricanes mbar</t>
+          <t>['castle', 'century', 'station', 'church', 'castles', 'built', 'bridge', 'tower', 'pier', 'railway', 'bailey', 'river', 'building', 'trains', 'bristol']</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.00634646899998188</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5518900841474533</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0139054747443879</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3120964705944062</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01560145007388201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -801,23 +801,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>said told death police murder family life found asked relationship killed later mother character man killing hospital father child house away help shot kill leave storyline prison arrested trial old find guilty left money sentenced taken bond case wife woman died people stated shooting body revealed years evidence having crime knew authorities sister months sentence investigation charges going days friend friends convicted discovered mercedes incident come soap children tells think believed inmates murders daughter room victim wanted described court home scene testified heard went charged prisoners tried arrest judge officers investigators execution affair saying suicide officer involved escape report sarah</t>
+          <t>['match', 'wrestling', 'championship', 'wwe', 'tag', 'raw', 'ring', 'smackdown', 'defeated', 'heavyweight', 'feud', 'event', 'wwf', 'michaels', 'title']</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01398745905607939</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1060550585389137</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01069972050572687</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4531370580196381</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03124739099293947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -826,23 +826,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>city million school company building stadium students center schools year sports largest located community years including library sold public education business area campus hosted financial market founded new local university host include college festival population facilities arena student development billion events established olympic residents companies chicago street museum program firm neighborhoods businesses downtown opened industry united_states expanded arts private facility annual retail buildings housing football expansion mayor venues programs theatre includes offices acquired neighborhood institutions households designed jobs census products commercial home board investment organization members professional art location median families funds fraternity management collection owned national fund culture historic</t>
+          <t>['building', 'city', 'park', 'chicago', 'memorial', 'memorials', 'library', 'fountain', 'indiana', 'square', 'galveston', 'street', 'buildings', 'bay', 'courthouse']</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.05418902402743697</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005988378322217614</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2119867268949747</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3385678291320801</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1091390546411276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -851,23 +851,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>film role appeared award acting director roles success actor performance directed comedy drama actors films cast movie festival starred television received box awards played actress career play production starring musical reviews theatre alongside debut critical stage best filmography tamil supporting cinema critics stars romantic thriller screen hollywood telugu script performances successful broadway adaptation feature nominations filming life worked mother playing nominated wrote opposite portrayed ballet acclaim screenplay critic acclaimed born met critically commercial theatrical remake picture productions screened indian los_angeles directorial married personal work lynch bollywood producer woman cannes actresses portrayal bafta academy_award movies miss comedian dance voice earned grossed</t>
+          <t>['simpsons', 'episodes', 'episode', 'homer', 'stan', 'parker', 'kenny', 'animated', 'kyle', 'nickelodeon', 'voice', 'lisa', 'jake', 'television', 'voiced']</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.009088370838435366</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006397364220174495</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.358179322630167</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03691967283375561</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1450648702681065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -876,23 +876,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cambridge oxford boat competition silver summer competed referred medal seconds olympics compete athletes champions heat race championships crews finishing honour reigning thames rowing olympic races blues medals cox lengths contest paralympics beijing sport stroke bronze surrey universities coached athlete opponents excluding rowed university_of_cambridge fixture participants contained toss gold umpire isis university_of_oxford rower competing annually represented rivalry pounds junior coaches umpired wheelchair competitors participating participate middlesex handing favour swimming clear overall paralympic qualified boxing sports event hammersmith_bridge mile_post contested preliminary river_thames flag worldwide athletics ahead delegation course winner strokes polo participation favourites freestyle rowers disability reserve swimmer events consecutive qualification relay</t>
+          <t>['battalion', 'brigade', 'division', 'regiment', 'infantry', 'battalions', 'squadron', 'training', 'unit', 'units', 'raaf', 'australian', '2nd', 'japanese', '1st']</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.008512655468075536</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6047645628452301</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01981170552317053</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03024976891174447</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6190435811877251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -901,23 +901,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>album music songs rock recorded recording band beatles lyrics musicians george_harrison sound harrison song bands track release live things guitar version vocals apple musical 1970s psychedelic included cover written record like material studio group drums backing solo folk metal reissue love single released compositions guitarist genre sessions describes morrison 1960s john_lennon acoustic tour slide recordings bass playing composition musician writes inspired albums piano style author progressive paul_mccartney producer guitars played rolling_stone riff success bob_dylan audience wrote drummer writing particularly biographer popular let blues krishna rhythm jazz lord biographers early emi described sleeve living overdubbed remastered rolling_stones glam late mojo issued</t>
+          <t>['olympics', 'athletes', 'olympic', 'medal', 'meter', 'freestyle', 'championships', 'beijing', 'medals', 'seconds', 'relay', 'gold', 'competed', 'games', 'summer']</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02205537650734186</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.171324459835887</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02342240157013293</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.009272589339525438</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01877434361522319</v>
+        <v>0.201956527696835</v>
       </c>
     </row>
     <row r="20">
@@ -926,23 +926,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>song video number like performance tour music madonna performed best songs stage beyoncé week gaga single dance shows chart called wrote spears live audience said dancers singer million felt described noted tickets gave love sold way received included performances billboard hot version musical choreography critics concert fans glee album praised featured release pop released commented debuted according wearing saying list girl added night black kurt sang copies choreographed track wanted costumes onstage dancing britney dress scene interlude awards spectacle cyrus scenes look broadway total weeks cover end lady_gaga singing artist videos lyrics dates napoleon rachel set people mtv different covered</t>
+          <t>['oxford', 'cambridge', 'race', 'boat', 'blues', 'rowed', 'rowing', 'lengths', 'crews', 'rower', 'thames', 'races', 'crew', 'universities', 'umpired']</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.006460258743027225</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2479621134698391</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3303380191326141</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05723862154409289</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04612513110041618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -951,23 +951,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>class built main guns line castle new service use long locomotives london speed intended locomotive fire continued range gun designed high war increased ships end originally construction additional carried lines tons maximum railways railway turrets large extended station designs inch turret work design provided aircraft tower instead control steam defences remained decided initially forward mounted power passenger armour armament gauge services bailey artillery fitted castles trains replaced standard short fortification heavy light original south reduced existing required towers rounds ran running improved century mph opened converted belt allow period battlecruisers engines taken proved delivered better gatehouse platform early boiler need</t>
+          <t>['poem', 'poems', 'poetry', 'poet', 'han', 'shakespeare', 'ode', 'riley', 'text', 'sanskrit', 'texts', 'poetic', 'literary', 'works', 'smart']</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.08213312737643719</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07454758565872907</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.38550333827734</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03170504635199904</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005275989475194365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -976,23 +976,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cap fruit color shaped spores bodies fungus stem mushroom spore taxonomy yellow diameter collected gill somewhat commonly hyphae bearing description typically colored epithet grow grows north_america slightly flesh smooth thin orange pale distinguished gills genus covered mushrooms scattered forests specific closely basidia taste whitish roughly measuring characteristics reddish margin attached caps growing dry connections wide brownish distinct clamp distributed odor mycologist similar distinctive specimens mature stipe microscopic translucent occasionally edible measure fine spored hollow hyaline cystidia tissue fungi habitat brown lacks ellipsoid layer yellowish produces broadly attachment narrow distribution maturity walled differences print cheilocystidia cuticle cylindrical cells pink rounded apex</t>
+          <t>['breed', 'horses', 'horse', 'breeds', 'dog', 'dogs', 'stud', 'breeding', 'bred', 'arabian', 'stallion', 'riding', 'breeders', 'pony', 'stakes']</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5452995166182518</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3678066335618496</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5850340411067009</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04119680728763342</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2095702603459358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1001,23 +1001,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>episode mulder plot find scully nielsen doctor files scene david_duchovny finds x-files filmed dana_scully enterprise gillian_anderson alien fox olivia filming agents fox_mulder previously fbi broadcast script paranormal man mythology fringe households agent planet watched chris_carter carter archer smoking viewers linked effects believe rating noting walter duchovny arrives kill frank_spotnitz zack_handlen episodes reception discover lars_pearson skinner trek monster star reviews thought bbc generation voyager cinefantastique tardis wanting robert_shearman producers special ratings stars rated lone paula_vitaris walter_skinner skeptical centers creature kim_manners television tucker amy story scenes aliens gunmen investigate starfleet aired unconnected finale believes mitch_pileggi tells household watching creator mixed reyes killing</t>
+          <t>['creek', 'watershed', 'dam', 'volcano', 'lava', 'pipeline', 'flows', 'volcanic', 'trout', 'mountain', 'park', 'eruption', 'river', 'feet', 'cubic']</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.003133556313696317</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004337784994277172</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2984204389154911</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01052924391697161</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1390483241528273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1026,23 +1026,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>son king died brother death daughter father reign royal kings younger succeeded sons kingdom probably bishop brothers married claim according marriage appears granted wife mentioned lands emperor duke sources edward empire historians successor fortress hungary prince possibly ruler refused conflict account crown powerful stephen fled historian byzantine siege hungarian secure peace castle confirmed likely john invaded chronicle rome sent hands heir seized managed pope cousin surviving ill invasion eldest alexander buried authority crowned uncle records chronicler throne grandfather earl constantinople archbishop ruled nephew bishops william alliance imperial accepted tried papal iii rebellion succession ireland exile mac constantine certainly dublin persuaded</t>
+          <t>['aircraft', 'engine', 'flight', 'fuselage', 'wing', 'air', 'engines', 'prototype', 'radar', 'fighter', 'fuel', 'raf', 'speed', 'car', 'testing']</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0100745378760621</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01196660913701635</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2566321782767773</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02810882889607456</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01590466656780336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1051,23 +1051,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>text notes book bach sunday published setting edition movements describes publication bass read author magazine stories poem note books printed works tone editor ensemble instrumental instruments aria piece strings introduction orchestra melody painting die voices closing poet composed scholar narrative stanza accompanied edited jesus reading repeated movement soprano details conclusion editions format hymn recordings poetry structured praise tenor page writes comments issues god verse focus readers solo volume gospel chapters issue informed occasion leipzig themes violins verses und chorus publishing alto readings sung beginning dramatic contrast composer depiction luke tune argues choral publisher aspects symbol translation content poems pages adventures</t>
+          <t>['trains', 'locomotives', 'locomotive', 'oslo', 'line', 'nok', 'train', 'station', 'tunnel', 'railway', 'class', 'rail', 'railways', 'passenger', 'trondheim']</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02112213500076905</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01375438745017163</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01565796392242191</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02079009520821273</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.449882784485817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1076,23 +1076,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>raaf flying wing combat unit training operational pilot officer aircraft flight pilots disbanded commanding squadron air fighter deployed awarded royal_australian_air_force promoted commander responsible missions prototype rank staff aviation flew squadrons bomber fighters weight posted bombing equipment fuselage enemy engine operations headquarters crashed operating mission deployment testing victoria powerplant nuclear nos retired aerial responsibility tactical maintenance bomb instructor bombs duty trained employed chief wingspan conducted flown newly headquartered graduated activated radar senior honor united_states_army air_force cockpit bombers fuel trainers task airmen technical specifications royal_air_force delivered lockheed reconnaissance assistant civilian new_south_wales nose cancelled targets melbourne wartime operated ace disbanding weapon korean piloted</t>
+          <t>['manga', 'anime', 'comics', 'stories', 'story', 'comic', 'magazine', 'volume', 'volumes', 'fiction', 'gay', 'characters', 'pulp', 'published', 'issue']</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01136588414083235</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1898565083742142</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03368105611298233</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.186268088594079</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01279006953700446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1101,23 +1101,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>took second played runs team tour england australia playing class run came score match taking day scored batsman bat series cricket ended victory won play somerset seven win bowling career total highest bowler season batsmen unbeaten despite india dismissed average cricketer captain wicket bowled opening debut final miller partnership balls reached harvey duck overs having draw test boycott south_africa west_indies best scoring leg international tests scores hit australian players ashes saw leading centuries yorkshire new_zealand half maiden captained tourists fourth fell went ball touring barnes making lost drawn century returned successful keeper hosts reply south_australia victoria trinidad minutes spin club</t>
+          <t>['lap', 'race', 'drivers', 'laps', 'pit', 'car', 'driver', 'ferrari', 'qualifying', 'prix', 'session', 'fastest', 'ahead', 'caution', 'hamilton']</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.007760148178203963</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.008421576680848374</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01096323036763351</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.006805727141909301</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9740591228008271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1126,23 +1126,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>highway north road east route lane south intersection west continues interchange designated completed state passes divided southern freeway portion access turns street northern crosses extended terminus heads northeast past intersects near eastern crossing bus designation lanes segment residential follow exit enters downtown alignment meets comes begins passing concurrent entire business heading follows section southeast end cross concurrency southbound avenue northwest border rural northbound roadway rerouted town continuing bypass highways cloverleaf mile undivided traffic concurrently areas intersections routes constructed routing baltimore old western eastbound commercial delaware splits ends corridor existing widened roads interstate maryland ramp description remainder expressway construction junction expanded</t>
+          <t>['yard', 'yards', 'touchdown', 'tech', 'alabama', 'bowl', 'quarter', 'michigan', 'offense', 'football', 'pass', 'rushing', 'quarterback', 'conference', 'touchdowns']</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.009095838607754559</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2322757564485073</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5369388088583946</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01222206808160991</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5035870999097825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1151,23 +1151,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>game team play season second defense kick led lead week half record end football field named line year touchdowns players total yards ranked score completed fourth point goal drive quarterback big points head coach teams running remaining nfl punt conference defensive rushing halftime receiver player pass interception returned time offense attempt school loss offensive espn win regular quarter victory coaches plays coordinator national tackles alabama recovered tackle touchdown selected bowl linebacker yard tech passing michigan coaching sec turnover following notre dame played wide ncaa gain ball incomplete senior tennessee possession final passes preseason freshman nationally responded intercepted rushed ohio_state history</t>
+          <t>['wine', 'chicken', 'cheese', 'bacon', 'recipes', 'sandwich', 'fried', 'dish', 'dishes', 'cuisine', 'ingredients', 'cooking', 'beef', 'food', 'product']</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.006844108941731974</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.009016785424319097</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03014692887663841</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01321761001599953</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01869345242739655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1176,23 +1176,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>second place position race track car lead fifth fourth sixth pole passed championship ferrari stop grid qualifying practice points drivers prix williams start finished seventh standings held pit teammate ahead started driver positions session seconds tyre flag tyres grand caution laps leading maintained podium saturday stewart finish nascar racing gearbox spun tenth quickest pitted restart fastest button lap going stops chassis conditions able win grip collided moved problems ninth eighth penalty turn team overtake gap races cars retired retire overtaking followed corner engine failed faster meant overtook time final safety collision sessions finishers set reclaimed lotus chevrolet came failure winner</t>
+          <t>['persian', 'army', 'byzantine', 'athens', 'greeks', 'greece', 'battle', 'alexander', 'greek', 'siege', 'muslim', 'cavalry', 'byzantines', 'arab', 'ottoman']</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01217014548019506</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01879867502211709</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03331412051338702</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.009758950362447649</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3988543182611465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1201,23 +1201,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>episode viewers glee club watched relationship finn rating rachel character tells kurt storyline share demographic television ratings broadcast plot creator aired guest enjoyed reception viewership quinn sue south_park praised vanderwerff storylines gave emma deemed felt think cast received tries nielsen cory_monteith commented kyle liz brittany fun rendition appearance know airing neighbours asks leave reviewers good lea_michele want ign episodes musical said nbc gets going help decides performances attracted scene tina moments houston_chronicle premiere recurring finale canning entertainment_weekly getting job wants previous mash lynch nice funny originally gives comedy cheerleader returns didn james_poniewozik logan perform characters producer reveals friends emotional mike</t>
+          <t>['bach', 'text', 'movements', 'movement', 'soprano', 'gospel', 'jesus', 'hebrew', 'aria', 'alto', 'manuscripts', 'leipzig', 'tenor', 'hymn', 'matthew']</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01557498058173223</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5112218335270882</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1744996391236782</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1181326910853386</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3187251344323158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1226,23 +1226,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>time year world won games record team years title season final second player win best set open game played career players defeated singles round lost gold sets tournament medal murray said events july olympic history later olympics championships april winning play including reached seed summer march times major following met chess series nba semifinals tournaments tennis august straight november chamberlain event american finals men titles place championship semifinal february june january records doubles slam received silver medals points playing match champion beat bolt high meter fischer masters fight losing clay madrid french relay defeating despite ranked began end freestyle reach</t>
+          <t>['coaster', 'ride', 'roller', 'riders', 'train', 'coasters', 'flags', 'park', 'lift', 'cedar', 'drop', 'brake', 'trains', 'steel', 'hill']</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.005508338178151462</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2747396059334278</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02719797533936798</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01204534507414792</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1304425697773695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1251,23 +1251,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>game player mario mega gameplay graphics praised enemies players ign controls gaming sonic arcade console levels development gamespot mode nintendo screen nes adventure features reviewers version games gamepro scrolling developers super boy gamecube multiplayer rare sega ups robot crash graphical bosses items wii gamespy eurogamer reception weapon nintendo_power reviewer difficulty available visuals japan virtual weapons informer lack puzzles metacritic level ported shooter gamers feature collect xbox gamerankings gamesradar handheld north_america enemy puzzle characters allows modes obstacles stages developed criticized sequel creatures gamer abilities predecessor sprites lauded nintendo_entertainment_system hidden ability consoles evil addictive takes playable stating developer online shoot genre cartridge</t>
+          <t>['formula', 'function', 'matrix', 'linear', 'functions', 'space', 'constant', 'defined', 'language', 'filter', 'frequency', 'mass', 'derivative', 'kilogram', 'units']</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2573936514556408</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3747125387191773</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02461090908618644</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3534044206142425</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4636708319187164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1276,23 +1276,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>series character television season episodes episode characters story cast dvd aired doctor viewers producer seasons awards broadcast voice producers finale ratings star writing trek original bbc fans relationship enterprise writer comic simpsons anime south_park role writers nominated drama clark homer manga created appeared pilot premiere production gwen voiced animated wanted felt actors animation award emmy nickelodeon voyager executive recurring lisa released airing audience script comedy produced best outstanding shows arc idea portrayed written adventures scripts primetime davies featured spin filmed showrunner scenes adam kenny plot sitcom programme tardis comics main friends life angel volumes fringe fan described actor crew originally</t>
+          <t>['amendment', 'constitution', 'singapore', 'law', 'court', 'courts', 'judicial', 'parliament', 'article', 'constitutional', 'justice', 'shall', 'clause', 'act', 'rights']</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01594948749989271</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03403579890727997</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08401750549674034</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1459343515336514</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01930364652071148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1301,23 +1301,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>campaign said announced stated saying support election media party political criticized government president leader presidential republican nomination polls campaigning debate bush january interview primary candidacy candidate issues poll senator democratic policy reagan stating nixon asked people conservative nominee vote percent mccarthy kennedy democrats run obama candidates hillary_clinton running state press barack_obama march november cuts issue public voters iraq brown labour told endorsement endorsed general campaigned supported member contest liberal conservatives votes police polling vice harper opposition february white_house gravel cnn budget allegations leadership ballot ronald_reagan senate minister clinton announcement incumbent news showed investigation politics gore received republican_party controversial spending members</t>
+          <t>['management', 'twitter', 'investment', 'bank', 'billion', 'equity', 'watson', 'design', 'banking', 'company', 'users', 'firm', 'business', 'merger', 'assets']</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1705629453063011</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02290971307957079</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02007778366096318</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04806597176939249</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06155351884663105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1326,23 +1326,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>member served elected governor committee serving worked election appointed kentucky married resigned attended born fellow legislature term opposed president massachusetts politics died secretary commission virginia admitted serve chairman votes tenure professor graduated candidate politician education buried attorney retirement helped honor seat degree chosen judge republican vote assistant wife senate democratic prominent union political studied legacy lived practice bill mayor rank board lieutenant deputy lawyer estate majority efforts senator honorary taught retired survived resign vice congress health administration post legislation appointment session delegate west_virginia voted sought refused jones opposition representing candidates daughter reform enrolled democrat master interred graduating establishing parsons attending</t>
+          <t>['mosque', 'temple', 'congregation', 'wall', 'palace', 'hall', 'jewish', 'jews', 'shrine', 'tomb', 'temples', 'cave', 'jerusalem', 'christians', 'dome']</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01684683081402909</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01325256149284542</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01581451560778078</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.268214563280344</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005566567467758432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1351,23 +1351,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>daily trunkline roadway national_highway_system travels designated surveys entire paved intersections designation traveling terminus rural mdot existed crosses intersection aadt continuing mobility turns calculated segment renumbering connecting routing michigan_department_of_transportation continues description connects vehicles annual intersects highways 1930s economy extended concurrency passes turning junction entirely farmland truncated alignment spur racially concurrent concurrently shortened flamboyant responsibilities heading traveled courted terminates buddy continuation calculation meets 1940s mile subtitles enters shifted limits route defied replacing rerouted rampant profanity highway entertained unchanged conducts academically portion statistical ferry lowest undivided oppressed frantic psychologically stretch altogether interstate entering counts bitterness connect reliant heads sacrificing ethnicity realigned exit apocalyptic</t>
+          <t>['scotland', 'scottish', 'island', 'islands', 'norse', 'century', 'edinburgh', 'isles', 'houses', 'architecture', 'mainland', 'scots', 'glasgow', 'highlands', 'churches']</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.308291508257389</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01556267099513207</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01245210231863894</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03019985501887277</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01045856545970309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1376,23 +1376,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>song video number single chart performed peaked weeks carey debuted rihanna hot background week girl performance charts pop madonna swift chorus love billboard dance singer lyrics commented live singles vocals wearing united_kingdom beats ballad tempo digital jackson composition don music credits dancing track usher remix vocal accompanying directed mtv critics certified singing dancers compared entered spears artist mtv_news certifications ending formats listings progression scenes version mariah sings reception chord know downloads radio belgium verse charted videos shown premiered peak dress lyrically platinum beat dressed airplay feel peaking perry australian_recording_industry_association boyfriend songwriting hook written critical begins wore awards idolator filmed songwriter</t>
+          <t>['croatian', 'yugoslav', 'partisans', 'serbian', 'croatia', 'yugoslavia', 'partisan', 'serbs', 'bosnia', 'belgrade', 'serbia', 'germans', 'civilians', 'division', 'forces']</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3074745588004589</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07946625333279371</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1221183739602566</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.006425083748763427</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3543224662542343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1401,23 +1401,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>war following german april training japanese division attack march assigned transferred november december command commander 2nd august battalion remained 1st personnel october heavy february service awarded fighting officer september june support july killed men machine raised honours 5th days 6th australian unit combat formed january offensive units germans officers staff formation commanding advance operation 7th positions action battalions moved reserve operations period patrols brigade infantry rest middle_east divisions casualties subsequently world overseas new_zealand returned relieved disbanded squadron 3rd headquarters forces strength elements australia undertook 4th divisional general new_guinea north_africa duties served involved germany lieutenant korean wounded artillery fire gallipoli advancing</t>
+          <t>['plants', 'plant', 'botanical', 'tree', 'camouflage', 'animals', 'organisms', 'animal', 'gardens', 'species', 'garden', 'tea', 'trees', 'ecology', 'predators']</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.08893632423132658</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0748250775039196</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01335142900352366</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1165405601263046</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3557280123233795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1426,23 +1426,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rainfall meteorological preparations watch florida flooding damage winds hurricane issued reported rain landfall mexico usd rains warnings sustained caused wave homes category storm national_hurricane_center flooded flash affected mbar heavy louisiana tides waves hours causing occurred inland gulf_of_mexico evacuated washed shelters warning nhc caribbean_sea saffir offshore eye mph gusts gale estimated remnants watches crops coast destroyed intensity attained ashore downed totaled minimal advised beach coastline reports southeastern strong status portions hundreds tracked surge inhg weakened disaster utc simpson atlantic_ocean impact rapidly rough gradually damaged extratropical coastal drowned hpa bahamas worst wind bermuda evacuation seas peak strongest circulation moderate resulting dropped northwestward</t>
+          <t>['phillies', 'inning', 'yankees', 'dodgers', 'teams', 'breaker', 'giants', 'mlb', 'tie', 'yankee', 'postseason', 'game', 'run', 'pitcher', 'baseball']</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.29395622164011</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03646698724478483</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09225720316171646</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3425467789173126</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1296639144420624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1451,23 +1451,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rating office jim dwight episode aired nbc watching nielsen michael pam share rated viewed ratings andy directed broadcast mulder viewers noting guest references files demographic scully agents olds plot tells tries enjoyed television liz households ages employees ign david_duchovny angela rainn_wilson scranton gets fictional dana_scully steve_carell john_krasinski funny comedy lives watched reviews dunder mifflin fbi paranormal credit fox_mulder ultimately trying gillian_anderson jenna deleted camera jenna_fischer documentary says stars talking x-files getting realizes mifflin_paper_company moments finds job michael_scott linked ed_helms calling everyday jim_halpert guide saturday reference aged entry asks depicts favorite cbs dwight_schrute ryan calls decides adults creator alan_sepinwall jan oscar</t>
+          <t>['painting', 'paintings', 'art', 'artist', 'serbian', 'works', 'marie', 'exhibition', 'copenhagen', 'photography', 'photographers', 'canvas', 'painted', 'symphony', 'portrait']</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.007766753225587309</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.299357857555151</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01709219649201259</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01180382510647178</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02530571306851925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1476,23 +1476,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>species small female large male found larger size long shark dorsal head adult waters body range eyes sharks females males fins fin mainly upper feeding caught eggs adults prey black predators length lower genus populations tail habitat pectoral shallow fisheries reef bird fishes juveniles individuals marine birds water teeth sea food likely fish common skin taxonomy highly concern nest spots tip fishing mouth egg feeds reproductive snout ray assessed mating smaller jaw occurs bony animals sexual feed caudal aggressive juvenile predator pairs threatened reproduction threat tooth relatively description embryos ventral mature jaws animal subspecies usually observed anal yolk habitats catch</t>
+          <t>['spacecraft', 'apollo', 'nasa', 'orbit', 'mission', 'lunar', 'launch', 'saturn', 'docking', 'flight', 'manned', 'module', 'space', 'landing', 'earth']</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01140104882942978</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3145668677985668</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.239632323384285</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3037213630974293</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00515785893658176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1501,23 +1501,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ride train coaster roller riders station steel trains lift operate hour brake drop themed officially cars passengers roll opened passenger foot operated attraction chain oslo norwegian services hill guests locomotive owned market rides locomotives plans height build tall flags amusement nok railway platform shoulder manufactured longest operating adventure car supports park planning travel layout tallest tunnel experience pier coasters queue bought ticket cedar poll seating attractions capacity vertical operates stock delivered announcement platforms purchase acquired norway facilities railways brand approximately opening installation drops attendance loop purchased products restraints installed freight seats allow reopened manufacturer store banked stations venue express axle</t>
+          <t>['contest', 'broadcaster', 'semi', 'countries', 'jury', 'final', 'participating', 'greece', 'voting', 'host', 'idol', 'entry', 'philippine', 'song', 'country']</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.1071322597563267</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0313692431896925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2423243448138237</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.007478632871061564</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01042232050094754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1526,23 +1526,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>building church stone wall built site listed roof windows century walls buildings tower 19th restoration corner chapel entrance interior structure memorial architect parish window constructed location house hall architecture floor grade temple decorated architectural nave designed surrounding monument chancel rebuilt remains exterior dedicated towers bell demolished sir room 16th brick 18th door castle arches erected masonry facing cathedral rooms carved stands style pier medieval date glass statue rector houses restored mosque surrounded oldest centuries originally cross foundation centre rectangular arch nearby metres square occupied dating block storey 17th stained topped marble altar structures housed architects porch installed slate font depicting</t>
+          <t>['lighthouse', 'light', 'keeper', 'tower', 'lens', 'keepers', 'concrete', 'connecticut', 'lamp', 'cottages', 'installed', 'constructed', 'lamps', 'island', 'iron']</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01386147749144584</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02781850698520429</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1678475677967071</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.006765116384485736</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.007570117526483955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1551,23 +1551,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>battle men army troops french command general british sent attack soldiers forces wounded killed commanded camp siege retreat captured advance garrison arrived aftermath retreated supplies expedition ordered casualties force fire cavalry capture americans fort losses militia colonel news arrival fought flank fleet advanced wars armies surrender action marched infantry continental_army commander captain orders withdrew artillery occupied reinforcements suffered howe companies new_york enemy led guard battles defeat engagement crossed washington persian frigate revolutionary austrians left assault sailed surrendered regiments raid marching rhine learned defenders retreating allies fight column invasion musket engaged eventually hms quebec surprise loyalist attempt taken frigates decided landed</t>
+          <t>['ben', 'survivors', 'shannon', 'island', 'freighter', 'charlotte', 'bernard', 'michael', 'plane', 'daniel', 'tom', 'frank', 'dave', 'kate', 'oceanic']</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01947503020055592</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01584342743735761</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3452901348471641</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3449993759393692</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01127678766933968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1576,23 +1576,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>championship match title defeated event team face won night following kane attacked main wrestler win referee rope professional view pay heavyweight wrestlers champion survivor announced pinfall pin contest michaels interfered rematch cage ring retain pinned undertaker pinning wrestlemania shawn_michaels smackdown john_cena wrestled wrestling featured backstage wwf ecw randy_orton feud contender bout storyline summerslam teamed ringside elimination eliminated superstars faced fight heel began submission world_wrestling_entertainment involved ladder joe wwe disqualification stipulation nwa mat rumble signature retained feuds challenged versus defended lost intercontinental raw divas maneuver fan feuded hart promotion flair scripted royal_rumble world teaming attacking hold edge triple tag wrestle impact</t>
+          <t>['motorway', 'croatia', 'adriatic', 'croatian', 'toll', 'traffic', 'interchanges', 'kilometre', 'route', 'interchange', 'kilometres', 'section', 'areas', 'rest', 'yugoslavia']</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0144740950956475</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03427045007410925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4897621124982834</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9380190819501877</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01951279630884528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1601,23 +1601,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>entertain entertained buddy profanity flamboyant racially courted rampant subtitles bishop psychologically app oppressed horrific bother sacrificing unconventional bitterness pencil backgrounds academically format infamous predecessor dos manipulate ethnicity preparation longstanding oppressive physique fortunes balloons defied revamped denominations passport onscreen monstrous odyssey proficient apocalyptic dump laborers surpass misunderstood masks frantic promoting reliant headline economies packages dictated virtually slump professed massively dialog exchanges fascinated revolutions adapting variations solidified awakened prepared challenging stirred injustice healed opt verbally reconsider apologized dealt irresponsible replicated exams endorsing despised portrayals manage promoter hugely multinational repercussions reviewed eyewitness lifestyles inherently adversary famously certificates irregularities hoc frequented improves instalment resorted</t>
+          <t>['rockets', 'nba', 'arena', 'playoffs', 'houston', 'team', 'franchise', 'ownership', 'finals', 'relocation', 'toronto', 'draft', 'games', 'pick', 'season']</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.008484390540979802</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01161800386907999</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004138970011263154</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.006331160617992282</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02036150118801743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1626,23 +1626,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>production system crew mission use development based high million aircraft engine control announced new flight launch including spacecraft range program speed time nasa vehicle apollo missions sales fuel ground air lunar market low project moon performance twitter launched landing pilot developed car flights engines cost version available models orbit designed weapons level hours saturn technology vehicles toyota began capability june manned march service testing missile altitude module radar total united_states combat tested december earth produced capabilities company stage model thrust billion rocket systems cabin january missiles planned oxygen price equipment flew nuclear industry april stated design reported increased year software</t>
+          <t>['clark', 'superman', 'oliver', 'finale', 'season', 'comic', 'character', 'relationship', 'whitney', 'metropolis', 'believes', 'discovers', 'secret', 'martha', 'series']</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01009370039100759</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0494337142445147</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0133516660076566</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06207955433055758</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08253500191494823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1651,23 +1651,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>album songs number band release single music track copies released chart billboard tracks sound recording albums record week features reviews lyrics critics soundtrack studio debuted pop charts peaked vocals carey sold previous selling albums_chart contains certified producer performed singles cover platinum recorded felt listing song rock metacritic allmusic debut sales best label stars live hip sample hot hop rap shipments inspired promotion fans awards riaa promotional interview featuring drake grammy united_kingdom feel additional want jay-z written itunes assigns samples weeks bonus piano charting featured arranged writing arrangements sessions produced artist garbage recording_industry_association_of_america charted tour mixed wanted praised composed sounds rapper</t>
+          <t>['grammy', 'neo', 'hawaiian', 'soul', 'nominees', 'category', 'awards', 'rap', 'award', 'presented', 'categories', 'artists', 'recipients', 'academy', 'disco']</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.1207152530550957</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.006449979013996199</v>
+        <v>0.9278098447709954</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01625620713457465</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1074580769985914</v>
+        <v>0.9337022392667176</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1572628859430552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1676,48 +1676,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ship ships torpedo tons guns admiral cruiser fleet submarine sank laid sinking convoy german destroyer destroyers ordered boats damaged deck naval sunk knots escorted gun mounts repairs flagship torpedoes assigned stern shaft british flotilla vessels nautical escort transferred hms admiralty fire battleship aboard boilers cruisers beam hull convoys shipyard port malta april crew captain armament aft returning bow vessel horsepower sailed commissioned turbines french north_sea merchant royal_navy launched engagement submarines tubes range frigate escorting carried refit shipping inch displaced turrets kiel twin submerged engaged survivors warships wreck sms sea joined consisted battleships blockade departed fired maximum hipper thick sister returned</t>
+          <t>['euro', 'coins', 'currency', 'note', 'notes', 'denominations', 'dollar', 'value', 'stripe', 'tender', 'silver', 'thread', 'ink', 'issued', 'signature']</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.3455677382647991</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2021498717367649</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.26193792745471</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01760171893547522</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2584201775491238</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>government war military led political country party support polish foreign soviet revolution leader russian members alliance army influence forces russia france poland coup leaders german independence economic minister arab regime germany nationalist according established power people communist soviet_union reforms policies control european death western official ties conflict lithuanian diplomatic commonwealth relations leadership french general exile empire countries hitler peasants authorities local remained appointed uprising agreed faction moscow lithuania armed central anti new struggle nationalists sent troops supported syria emperor jewish national jews prime policy nationalism commander austria egypt armenian increasingly years international despite socialist revolt member ethnic china monarchy governments</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0.09794939737766981</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.00846508112954325</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.1929661452770233</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.07106933146715164</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.1723512664437294</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
